--- a/文档/乐翻天数据表设计文档-2016-05-03.xlsx
+++ b/文档/乐翻天数据表设计文档-2016-05-03.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="系统基本表" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="商品相关表" sheetId="3" r:id="rId3"/>
     <sheet name="用户-商品相关表" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491">
   <si>
     <t>系统表表名以S_开头</t>
   </si>
@@ -340,7 +340,7 @@
     <t>First</t>
   </si>
   <si>
-    <t>DECIMAL(18,0)</t>
+    <t>DECIMAL(18,3)</t>
   </si>
   <si>
     <t>一级分销佣金</t>
@@ -752,9 +752,6 @@
   </si>
   <si>
     <t>IntegralCoefficient</t>
-  </si>
-  <si>
-    <t>DECIMAL</t>
   </si>
   <si>
     <t>积分系数</t>
@@ -1589,10 +1586,39 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1613,43 +1639,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1658,21 +1653,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1704,14 +1685,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1744,13 +1741,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1762,13 +1837,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1780,13 +1855,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1804,67 +1885,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1876,31 +1897,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1924,7 +1921,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2099,6 +2096,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2109,6 +2130,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2130,59 +2175,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2194,10 +2191,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2206,137 +2203,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2498,9 +2495,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -2861,8 +2855,8 @@
   <sheetPr/>
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B92" sqref="B92:F92"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2933,7 +2927,7 @@
       <c r="E6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="60"/>
+      <c r="F6" s="59"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="14" t="s">
@@ -2949,7 +2943,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="11"/>
-      <c r="F7" s="61"/>
+      <c r="F7" s="60"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
@@ -2965,7 +2959,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="11"/>
-      <c r="F8" s="61"/>
+      <c r="F8" s="60"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
@@ -2981,7 +2975,7 @@
         <v>22</v>
       </c>
       <c r="E9" s="11"/>
-      <c r="F9" s="62"/>
+      <c r="F9" s="61"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
@@ -3031,7 +3025,7 @@
       <c r="E13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="60"/>
+      <c r="F13" s="59"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="14" t="s">
@@ -3047,10 +3041,10 @@
         <v>16</v>
       </c>
       <c r="E14" s="11"/>
-      <c r="F14" s="61"/>
+      <c r="F14" s="60"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="62" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -3063,7 +3057,7 @@
         <v>26</v>
       </c>
       <c r="E15" s="11"/>
-      <c r="F15" s="61"/>
+      <c r="F15" s="60"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="6" t="s">
@@ -3079,7 +3073,7 @@
         <v>28</v>
       </c>
       <c r="E16" s="11"/>
-      <c r="F16" s="61"/>
+      <c r="F16" s="60"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="6" t="s">
@@ -3095,7 +3089,7 @@
         <v>31</v>
       </c>
       <c r="E17" s="11"/>
-      <c r="F17" s="61"/>
+      <c r="F17" s="60"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="6" t="s">
@@ -3111,7 +3105,7 @@
         <v>22</v>
       </c>
       <c r="E18" s="11"/>
-      <c r="F18" s="62"/>
+      <c r="F18" s="61"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
@@ -3161,7 +3155,7 @@
       <c r="E22" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="60"/>
+      <c r="F22" s="59"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="14" t="s">
@@ -3177,10 +3171,10 @@
         <v>16</v>
       </c>
       <c r="E23" s="11"/>
-      <c r="F23" s="61"/>
+      <c r="F23" s="60"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="62" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -3193,7 +3187,7 @@
         <v>26</v>
       </c>
       <c r="E24" s="11"/>
-      <c r="F24" s="61"/>
+      <c r="F24" s="60"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="6" t="s">
@@ -3209,7 +3203,7 @@
         <v>22</v>
       </c>
       <c r="E25" s="11"/>
-      <c r="F25" s="62"/>
+      <c r="F25" s="61"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
@@ -3296,7 +3290,7 @@
       <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="63" t="s">
+      <c r="A32" s="62" t="s">
         <v>40</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -3540,7 +3534,7 @@
       <c r="F47" s="13"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="63" t="s">
+      <c r="A48" s="62" t="s">
         <v>64</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -3616,7 +3610,7 @@
       <c r="D52" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E52" s="64"/>
+      <c r="E52" s="63"/>
       <c r="F52" s="13"/>
     </row>
     <row r="53" spans="1:6">
@@ -3750,7 +3744,7 @@
       <c r="F61" s="13"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="63" t="s">
+      <c r="A62" s="62" t="s">
         <v>70</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -3832,8 +3826,8 @@
     <row r="67" spans="1:4">
       <c r="A67" s="22"/>
       <c r="B67" s="23"/>
-      <c r="C67" s="65"/>
-      <c r="D67" s="65"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
@@ -3886,7 +3880,7 @@
       <c r="F70" s="12"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="66" t="s">
+      <c r="A71" s="65" t="s">
         <v>73</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -3902,7 +3896,7 @@
       <c r="F71" s="13"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="66" t="s">
+      <c r="A72" s="65" t="s">
         <v>75</v>
       </c>
       <c r="B72" s="6" t="s">
@@ -4106,7 +4100,7 @@
       <c r="D84" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E84" s="67"/>
+      <c r="E84" s="66"/>
       <c r="F84" s="13"/>
     </row>
     <row r="85" spans="1:6">
@@ -4135,7 +4129,7 @@
       <c r="C86" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D86" s="68" t="s">
+      <c r="D86" s="67" t="s">
         <v>103</v>
       </c>
       <c r="E86" s="22"/>
@@ -4272,7 +4266,7 @@
       <c r="F95" s="13"/>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="63" t="s">
+      <c r="A96" s="62" t="s">
         <v>109</v>
       </c>
       <c r="B96" s="6" t="s">
@@ -4444,8 +4438,8 @@
   <sheetPr/>
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4678,7 +4672,7 @@
       <c r="E17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="54"/>
+      <c r="F17" s="25"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="17" t="s">
@@ -4919,7 +4913,7 @@
       <c r="D32" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E32" s="55"/>
+      <c r="E32" s="54"/>
       <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6">
@@ -4935,7 +4929,7 @@
       <c r="D33" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E33" s="55" t="s">
+      <c r="E33" s="54" t="s">
         <v>148</v>
       </c>
       <c r="F33" s="13"/>
@@ -4953,7 +4947,7 @@
       <c r="D34" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E34" s="55"/>
+      <c r="E34" s="54"/>
       <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6">
@@ -4969,7 +4963,7 @@
       <c r="D35" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E35" s="55"/>
+      <c r="E35" s="54"/>
       <c r="F35" s="13"/>
     </row>
     <row r="36" spans="1:6">
@@ -4985,7 +4979,7 @@
       <c r="D36" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E36" s="55" t="s">
+      <c r="E36" s="54" t="s">
         <v>155</v>
       </c>
       <c r="F36" s="13"/>
@@ -5003,7 +4997,7 @@
       <c r="D37" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="E37" s="55" t="s">
+      <c r="E37" s="54" t="s">
         <v>158</v>
       </c>
       <c r="F37" s="13"/>
@@ -5021,7 +5015,7 @@
       <c r="D38" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E38" s="55"/>
+      <c r="E38" s="54"/>
       <c r="F38" s="13"/>
     </row>
     <row r="39" spans="1:6">
@@ -5037,11 +5031,11 @@
       <c r="D39" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E39" s="55"/>
+      <c r="E39" s="54"/>
       <c r="F39" s="13"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="56" t="s">
+      <c r="A40" s="55" t="s">
         <v>51</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -5162,7 +5156,7 @@
       <c r="A48" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="6" t="s">
         <v>107</v>
       </c>
       <c r="C48" s="6" t="s">
@@ -5270,7 +5264,7 @@
       <c r="E55" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F55" s="57"/>
+      <c r="F55" s="56"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="17" t="s">
@@ -5286,7 +5280,7 @@
         <v>122</v>
       </c>
       <c r="E56" s="11"/>
-      <c r="F56" s="58"/>
+      <c r="F56" s="57"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="8" t="s">
@@ -5302,7 +5296,7 @@
         <v>176</v>
       </c>
       <c r="E57" s="11"/>
-      <c r="F57" s="58"/>
+      <c r="F57" s="57"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="8" t="s">
@@ -5318,7 +5312,7 @@
         <v>123</v>
       </c>
       <c r="E58" s="11"/>
-      <c r="F58" s="58"/>
+      <c r="F58" s="57"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="8" t="s">
@@ -5334,7 +5328,7 @@
         <v>142</v>
       </c>
       <c r="E59" s="11"/>
-      <c r="F59" s="58"/>
+      <c r="F59" s="57"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="8" t="s">
@@ -5350,7 +5344,7 @@
         <v>143</v>
       </c>
       <c r="E60" s="11"/>
-      <c r="F60" s="58"/>
+      <c r="F60" s="57"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="8" t="s">
@@ -5366,7 +5360,7 @@
         <v>145</v>
       </c>
       <c r="E61" s="11"/>
-      <c r="F61" s="58"/>
+      <c r="F61" s="57"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="8" t="s">
@@ -5382,7 +5376,7 @@
         <v>177</v>
       </c>
       <c r="E62" s="11"/>
-      <c r="F62" s="58"/>
+      <c r="F62" s="57"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="8" t="s">
@@ -5398,7 +5392,7 @@
         <v>179</v>
       </c>
       <c r="E63" s="11"/>
-      <c r="F63" s="59"/>
+      <c r="F63" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5422,8 +5416,8 @@
   <sheetPr/>
   <dimension ref="A1:F300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
-      <selection activeCell="F179" sqref="F179"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -7594,36 +7588,36 @@
         <v>244</v>
       </c>
       <c r="B145" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D145" s="6" t="s">
         <v>245</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D145" s="6" t="s">
-        <v>246</v>
       </c>
       <c r="E145" s="6"/>
       <c r="F145" s="13"/>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D146" s="6" t="s">
         <v>247</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D146" s="6" t="s">
-        <v>248</v>
       </c>
       <c r="E146" s="6"/>
       <c r="F146" s="13"/>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>49</v>
@@ -7632,14 +7626,14 @@
         <v>18</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E147" s="6"/>
       <c r="F147" s="13"/>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>49</v>
@@ -7648,14 +7642,14 @@
         <v>18</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E148" s="6"/>
       <c r="F148" s="13"/>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>49</v>
@@ -7664,14 +7658,14 @@
         <v>18</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E149" s="6"/>
       <c r="F149" s="13"/>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>49</v>
@@ -7680,14 +7674,14 @@
         <v>18</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E150" s="6"/>
       <c r="F150" s="13"/>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>76</v>
@@ -7696,14 +7690,14 @@
         <v>18</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E151" s="6"/>
       <c r="F151" s="13"/>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>228</v>
@@ -7712,14 +7706,14 @@
         <v>18</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E152" s="6"/>
       <c r="F152" s="13"/>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>21</v>
@@ -7728,14 +7722,14 @@
         <v>18</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E153" s="6"/>
       <c r="F153" s="13"/>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>30</v>
@@ -7744,7 +7738,7 @@
         <v>18</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E154" s="6"/>
       <c r="F154" s="13"/>
@@ -7792,14 +7786,14 @@
         <v>18</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E157" s="6"/>
       <c r="F157" s="13"/>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>15</v>
@@ -7808,16 +7802,16 @@
         <v>18</v>
       </c>
       <c r="D158" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="E158" s="44" t="s">
         <v>267</v>
-      </c>
-      <c r="E158" s="44" t="s">
-        <v>268</v>
       </c>
       <c r="F158" s="13"/>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>49</v>
@@ -7826,14 +7820,14 @@
         <v>18</v>
       </c>
       <c r="D159" s="43" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E159" s="44"/>
       <c r="F159" s="13"/>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>49</v>
@@ -7842,14 +7836,14 @@
         <v>18</v>
       </c>
       <c r="D160" s="43" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E160" s="44"/>
       <c r="F160" s="13"/>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B161" s="6" t="s">
         <v>49</v>
@@ -7858,14 +7852,14 @@
         <v>18</v>
       </c>
       <c r="D161" s="43" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E161" s="44"/>
       <c r="F161" s="13"/>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B162" s="6" t="s">
         <v>15</v>
@@ -7874,16 +7868,16 @@
         <v>18</v>
       </c>
       <c r="D162" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="E162" s="44" t="s">
         <v>276</v>
-      </c>
-      <c r="E162" s="44" t="s">
-        <v>277</v>
       </c>
       <c r="F162" s="13"/>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B163" s="6" t="s">
         <v>228</v>
@@ -7892,16 +7886,16 @@
         <v>18</v>
       </c>
       <c r="D163" s="43" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E163" s="45" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F163" s="13"/>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B164" s="6" t="s">
         <v>228</v>
@@ -7910,16 +7904,16 @@
         <v>18</v>
       </c>
       <c r="D164" s="43" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E164" s="45" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F164" s="13"/>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>30</v>
@@ -7928,7 +7922,7 @@
         <v>18</v>
       </c>
       <c r="D165" s="43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E165" s="44"/>
       <c r="F165" s="13"/>
@@ -7951,7 +7945,7 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>30</v>
@@ -7960,7 +7954,7 @@
         <v>18</v>
       </c>
       <c r="D167" s="43" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E167" s="44"/>
       <c r="F167" s="13"/>
@@ -8010,7 +8004,7 @@
         <v>18</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E170" s="6"/>
       <c r="F170" s="13"/>
@@ -8097,10 +8091,10 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -8156,16 +8150,16 @@
         <v>12</v>
       </c>
       <c r="D180" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E180" s="15"/>
       <c r="F180" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>49</v>
@@ -8174,10 +8168,10 @@
         <v>18</v>
       </c>
       <c r="D181" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="E181" s="15" t="s">
         <v>292</v>
-      </c>
-      <c r="E181" s="15" t="s">
-        <v>293</v>
       </c>
       <c r="F181" s="13"/>
     </row>
@@ -8199,7 +8193,7 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B183" s="6" t="s">
         <v>76</v>
@@ -8208,30 +8202,30 @@
         <v>18</v>
       </c>
       <c r="D183" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E183" s="15"/>
       <c r="F183" s="13"/>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="B184" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="B184" s="6" t="s">
+      <c r="C184" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D184" s="15" t="s">
         <v>296</v>
-      </c>
-      <c r="C184" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D184" s="15" t="s">
-        <v>297</v>
       </c>
       <c r="E184" s="15"/>
       <c r="F184" s="13"/>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>21</v>
@@ -8240,14 +8234,14 @@
         <v>18</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E185" s="15"/>
       <c r="F185" s="13"/>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>21</v>
@@ -8256,14 +8250,14 @@
         <v>18</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E186" s="15"/>
       <c r="F186" s="13"/>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>21</v>
@@ -8272,46 +8266,46 @@
         <v>18</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E187" s="15"/>
       <c r="F187" s="13"/>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D188" s="6" t="s">
         <v>304</v>
-      </c>
-      <c r="B188" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C188" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D188" s="6" t="s">
-        <v>305</v>
       </c>
       <c r="E188" s="6"/>
       <c r="F188" s="13"/>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D189" s="6" t="s">
         <v>306</v>
-      </c>
-      <c r="B189" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C189" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D189" s="6" t="s">
-        <v>307</v>
       </c>
       <c r="E189" s="6"/>
       <c r="F189" s="13"/>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>49</v>
@@ -8320,14 +8314,14 @@
         <v>18</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E190" s="6"/>
       <c r="F190" s="13"/>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B191" s="6" t="s">
         <v>49</v>
@@ -8336,14 +8330,14 @@
         <v>18</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E191" s="6"/>
       <c r="F191" s="13"/>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B192" s="6" t="s">
         <v>30</v>
@@ -8352,16 +8346,16 @@
         <v>18</v>
       </c>
       <c r="D192" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="E192" s="6" t="s">
         <v>313</v>
-      </c>
-      <c r="E192" s="6" t="s">
-        <v>314</v>
       </c>
       <c r="F192" s="13"/>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B193" s="6" t="s">
         <v>76</v>
@@ -8370,14 +8364,14 @@
         <v>18</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E193" s="6"/>
       <c r="F193" s="13"/>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>52</v>
@@ -8386,14 +8380,14 @@
         <v>18</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E194" s="6"/>
       <c r="F194" s="13"/>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>30</v>
@@ -8402,16 +8396,16 @@
         <v>18</v>
       </c>
       <c r="D195" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="E195" s="6" t="s">
         <v>320</v>
-      </c>
-      <c r="E195" s="6" t="s">
-        <v>321</v>
       </c>
       <c r="F195" s="13"/>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>49</v>
@@ -8420,14 +8414,14 @@
         <v>18</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E196" s="6"/>
       <c r="F196" s="13"/>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B197" s="6" t="s">
         <v>49</v>
@@ -8436,14 +8430,14 @@
         <v>18</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E197" s="6"/>
       <c r="F197" s="13"/>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B198" s="6" t="s">
         <v>49</v>
@@ -8452,14 +8446,14 @@
         <v>18</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E198" s="6"/>
       <c r="F198" s="13"/>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B199" s="6" t="s">
         <v>205</v>
@@ -8468,14 +8462,14 @@
         <v>18</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E199" s="6"/>
       <c r="F199" s="13"/>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B200" s="6" t="s">
         <v>49</v>
@@ -8484,32 +8478,32 @@
         <v>18</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E200" s="11"/>
       <c r="F200" s="13"/>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D201" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="B201" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="C201" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D201" s="6" t="s">
+      <c r="E201" s="6" t="s">
         <v>333</v>
-      </c>
-      <c r="E201" s="6" t="s">
-        <v>334</v>
       </c>
       <c r="F201" s="24"/>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B202" s="6" t="s">
         <v>49</v>
@@ -8518,14 +8512,14 @@
         <v>18</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E202" s="11"/>
       <c r="F202" s="51"/>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>49</v>
@@ -8534,14 +8528,14 @@
         <v>18</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E203" s="11"/>
       <c r="F203" s="51"/>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B204" s="6" t="s">
         <v>49</v>
@@ -8550,14 +8544,14 @@
         <v>18</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E204" s="11"/>
       <c r="F204" s="51"/>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B205" s="6" t="s">
         <v>49</v>
@@ -8566,14 +8560,14 @@
         <v>18</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E205" s="11"/>
       <c r="F205" s="51"/>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B206" s="6" t="s">
         <v>15</v>
@@ -8582,7 +8576,7 @@
         <v>18</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E206" s="11"/>
       <c r="F206" s="51"/>
@@ -8660,10 +8654,10 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>346</v>
       </c>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
@@ -8717,7 +8711,7 @@
         <v>12</v>
       </c>
       <c r="D216" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E216" s="15"/>
       <c r="F216" s="13"/>
@@ -8736,13 +8730,13 @@
         <v>231</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F217" s="13"/>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B218" s="6" t="s">
         <v>107</v>
@@ -8751,7 +8745,7 @@
         <v>18</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E218" s="6"/>
       <c r="F218" s="13"/>
@@ -8774,7 +8768,7 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B220" s="6" t="s">
         <v>107</v>
@@ -8790,7 +8784,7 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B221" s="6" t="s">
         <v>107</v>
@@ -8806,7 +8800,7 @@
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B222" s="6" t="s">
         <v>107</v>
@@ -8822,7 +8816,7 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B223" s="6" t="s">
         <v>21</v>
@@ -8831,14 +8825,14 @@
         <v>18</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E223" s="6"/>
       <c r="F223" s="13"/>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B224" s="6" t="s">
         <v>52</v>
@@ -8847,7 +8841,7 @@
         <v>18</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E224" s="6" t="s">
         <v>39</v>
@@ -8990,10 +8984,10 @@
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B234" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>358</v>
       </c>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
@@ -9047,14 +9041,14 @@
         <v>12</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E237" s="6"/>
       <c r="F237" s="13"/>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B238" s="6" t="s">
         <v>205</v>
@@ -9063,7 +9057,7 @@
         <v>12</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E238" s="6"/>
       <c r="F238" s="13"/>
@@ -9220,10 +9214,10 @@
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B249" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>361</v>
       </c>
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
@@ -9277,14 +9271,14 @@
         <v>12</v>
       </c>
       <c r="D252" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E252" s="16"/>
       <c r="F252" s="13"/>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B253" s="6" t="s">
         <v>30</v>
@@ -9293,16 +9287,16 @@
         <v>18</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E253" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F253" s="13"/>
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B254" s="6" t="s">
         <v>205</v>
@@ -9311,14 +9305,14 @@
         <v>18</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E254" s="11"/>
       <c r="F254" s="13"/>
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B255" s="6" t="s">
         <v>21</v>
@@ -9327,14 +9321,14 @@
         <v>18</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E255" s="11"/>
       <c r="F255" s="13"/>
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B256" s="6" t="s">
         <v>15</v>
@@ -9343,14 +9337,14 @@
         <v>18</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E256" s="11"/>
       <c r="F256" s="13"/>
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B257" s="6" t="s">
         <v>15</v>
@@ -9359,14 +9353,14 @@
         <v>18</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E257" s="11"/>
       <c r="F257" s="13"/>
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B258" s="6" t="s">
         <v>30</v>
@@ -9375,14 +9369,14 @@
         <v>18</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E258" s="11"/>
       <c r="F258" s="13"/>
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B259" s="6" t="s">
         <v>21</v>
@@ -9391,7 +9385,7 @@
         <v>18</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E259" s="11"/>
       <c r="F259" s="13"/>
@@ -9548,10 +9542,10 @@
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B270" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
@@ -9605,7 +9599,7 @@
         <v>12</v>
       </c>
       <c r="D273" s="40" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E273" s="11"/>
       <c r="F273" s="13"/>
@@ -9637,14 +9631,14 @@
         <v>12</v>
       </c>
       <c r="D275" s="40" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E275" s="11"/>
       <c r="F275" s="13"/>
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B276" s="6" t="s">
         <v>11</v>
@@ -9653,14 +9647,14 @@
         <v>12</v>
       </c>
       <c r="D276" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E276" s="11"/>
       <c r="F276" s="13"/>
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B277" s="6" t="s">
         <v>15</v>
@@ -9669,14 +9663,14 @@
         <v>18</v>
       </c>
       <c r="D277" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E277" s="11"/>
       <c r="F277" s="13"/>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B278" s="15" t="s">
         <v>205</v>
@@ -9685,7 +9679,7 @@
         <v>18</v>
       </c>
       <c r="D278" s="28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E278" s="52"/>
       <c r="F278" s="13"/>
@@ -9842,10 +9836,10 @@
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B289" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
@@ -9899,14 +9893,14 @@
         <v>12</v>
       </c>
       <c r="D292" s="40" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E292" s="6"/>
       <c r="F292" s="13"/>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B293" s="6" t="s">
         <v>11</v>
@@ -9915,7 +9909,7 @@
         <v>12</v>
       </c>
       <c r="D293" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E293" s="6"/>
       <c r="F293" s="13"/>
@@ -10067,8 +10061,8 @@
   <sheetPr/>
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B96" sqref="B96:F96"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -10083,15 +10077,15 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>392</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -10138,7 +10132,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>131</v>
@@ -10147,7 +10141,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
@@ -10179,7 +10173,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>39</v>
@@ -10188,7 +10182,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>76</v>
@@ -10197,14 +10191,14 @@
         <v>12</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>205</v>
@@ -10213,7 +10207,7 @@
         <v>18</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
@@ -10236,7 +10230,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>107</v>
@@ -10245,14 +10239,14 @@
         <v>18</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>30</v>
@@ -10261,14 +10255,14 @@
         <v>18</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>107</v>
@@ -10277,14 +10271,14 @@
         <v>18</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>107</v>
@@ -10293,14 +10287,14 @@
         <v>18</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>30</v>
@@ -10309,14 +10303,14 @@
         <v>18</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>30</v>
@@ -10325,14 +10319,14 @@
         <v>18</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>131</v>
@@ -10341,14 +10335,14 @@
         <v>18</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>131</v>
@@ -10357,14 +10351,14 @@
         <v>18</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>131</v>
@@ -10373,14 +10367,14 @@
         <v>18</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>21</v>
@@ -10389,14 +10383,14 @@
         <v>18</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>205</v>
@@ -10405,14 +10399,14 @@
         <v>18</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="7"/>
     </row>
     <row r="24" ht="40.5" spans="1:6">
       <c r="A24" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>49</v>
@@ -10421,16 +10415,16 @@
         <v>12</v>
       </c>
       <c r="D24" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>423</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>424</v>
       </c>
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>21</v>
@@ -10439,23 +10433,23 @@
         <v>18</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>427</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>428</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
@@ -10478,7 +10472,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>52</v>
@@ -10494,10 +10488,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -10544,7 +10538,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>11</v>
@@ -10553,7 +10547,7 @@
         <v>12</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="7"/>
@@ -10569,14 +10563,14 @@
         <v>12</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>205</v>
@@ -10585,14 +10579,14 @@
         <v>18</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>107</v>
@@ -10601,14 +10595,14 @@
         <v>18</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>49</v>
@@ -10617,14 +10611,14 @@
         <v>18</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>107</v>
@@ -10633,14 +10627,14 @@
         <v>18</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="7"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>30</v>
@@ -10649,14 +10643,14 @@
         <v>18</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="7"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>107</v>
@@ -10665,14 +10659,14 @@
         <v>18</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>107</v>
@@ -10681,30 +10675,30 @@
         <v>18</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>427</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>428</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="7"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>30</v>
@@ -10713,7 +10707,7 @@
         <v>18</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="7"/>
@@ -10736,7 +10730,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>52</v>
@@ -10752,10 +10746,10 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -10827,14 +10821,14 @@
         <v>12</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>205</v>
@@ -10843,14 +10837,14 @@
         <v>18</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="7"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>107</v>
@@ -10859,14 +10853,14 @@
         <v>18</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="7"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>49</v>
@@ -10875,14 +10869,14 @@
         <v>18</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="7"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>107</v>
@@ -10891,14 +10885,14 @@
         <v>18</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="7"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>52</v>
@@ -10914,10 +10908,10 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>452</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -10980,7 +10974,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>131</v>
@@ -10989,14 +10983,14 @@
         <v>12</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="7"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>52</v>
@@ -11005,7 +10999,7 @@
         <v>12</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="7"/>
@@ -11021,14 +11015,14 @@
         <v>12</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="7"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>30</v>
@@ -11037,10 +11031,10 @@
         <v>18</v>
       </c>
       <c r="D65" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="E65" s="6" t="s">
         <v>459</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>460</v>
       </c>
       <c r="F65" s="7"/>
     </row>
@@ -11055,16 +11049,16 @@
         <v>18</v>
       </c>
       <c r="D66" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="E66" s="9" t="s">
         <v>461</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>462</v>
       </c>
       <c r="F66" s="7"/>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>15</v>
@@ -11073,7 +11067,7 @@
         <v>18</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="7"/>
@@ -11089,39 +11083,39 @@
         <v>18</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="7"/>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>432</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>433</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="7"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>427</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>428</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="7"/>
@@ -11144,7 +11138,7 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>30</v>
@@ -11153,19 +11147,19 @@
         <v>18</v>
       </c>
       <c r="D72" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="E72" s="6" t="s">
         <v>466</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>467</v>
       </c>
       <c r="F72" s="7"/>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>469</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -11224,7 +11218,7 @@
         <v>195</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F77" s="7"/>
     </row>
@@ -11255,14 +11249,14 @@
         <v>12</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="7"/>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>205</v>
@@ -11271,14 +11265,14 @@
         <v>18</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="7"/>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>52</v>
@@ -11287,7 +11281,7 @@
         <v>12</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="7"/>
@@ -11303,14 +11297,14 @@
         <v>18</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="7"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>49</v>
@@ -11319,14 +11313,14 @@
         <v>18</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E83" s="6"/>
       <c r="F83" s="7"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>30</v>
@@ -11335,14 +11329,14 @@
         <v>18</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="7"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>30</v>
@@ -11358,7 +11352,7 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>30</v>
@@ -11367,17 +11361,17 @@
         <v>18</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="7"/>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>479</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>480</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -11424,7 +11418,7 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>11</v>
@@ -11433,14 +11427,14 @@
         <v>12</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="7"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>205</v>
@@ -11449,14 +11443,14 @@
         <v>18</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E92" s="6"/>
       <c r="F92" s="7"/>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>76</v>
@@ -11465,14 +11459,14 @@
         <v>18</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E93" s="6"/>
       <c r="F93" s="7"/>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>30</v>
@@ -11488,10 +11482,10 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>487</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -11550,13 +11544,13 @@
         <v>195</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F99" s="7"/>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>11</v>
@@ -11565,14 +11559,14 @@
         <v>12</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E100" s="6"/>
       <c r="F100" s="7"/>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>11</v>
@@ -11581,14 +11575,14 @@
         <v>12</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E101" s="6"/>
       <c r="F101" s="7"/>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>52</v>
@@ -11597,7 +11591,7 @@
         <v>12</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E102" s="6"/>
       <c r="F102" s="7"/>
@@ -11613,14 +11607,14 @@
         <v>18</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E103" s="6"/>
       <c r="F103" s="7"/>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>30</v>
